--- a/GameModules/Localization_Magic.xlsx
+++ b/GameModules/Localization_Magic.xlsx
@@ -547,7 +547,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -589,7 +589,7 @@
           <t>Proteção de Carne</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>Защита плоти</t>
         </is>
@@ -631,7 +631,7 @@
           <t>Sacrifique carne e sangue como um escudo para obter proteção contra ataques físicos.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>Пожертвуйте плотью чтобы использовать ее в качестве щита, защищая себя от физических атак</t>
         </is>
@@ -673,7 +673,7 @@
           <t>Bênção da Lâmina</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>Волшебный Клинок</t>
         </is>
@@ -715,7 +715,7 @@
           <t>Crie uma arma afiada que possa ferir um ser que uma arma comum não pode.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>Создайте острое оружие, способное ранить тех существ, которых нельзя ранить обычным оружием</t>
         </is>
@@ -757,7 +757,7 @@
           <t>Obtêm Arma - [Lâmina Abençoada].</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>Получите оружие - [Волшебный Клинок]</t>
         </is>
@@ -799,7 +799,7 @@
           <t>Praga</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>Увядание</t>
         </is>
@@ -842,7 +842,7 @@
           <t>Um poderoso feitiço de ataque em que o alvo é atingido por uma força aterrorizante, fazendo com que a carne e o sangue queimem e murchem.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>Мощное атакующее заклинание, цель испытает ужасающую силу удара, в результате чего ее плоть начнет гореть и разваливаться</t>
         </is>
@@ -884,7 +884,7 @@
           <t>Ativar Torre Ritual</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>ඞАктивировать ритуальную башню</t>
         </is>
@@ -926,7 +926,7 @@
           <t>Carter ativará a Torre Ritual após conjurar cinco vezes.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>ඞКартер активирует ритуальную башню после произнесения заклинания пять раз.</t>
         </is>
@@ -968,7 +968,7 @@
           <t>Conjurar uma vez por rodada. Depois de conjurar cinco vezes, você vencerá a batalha diretamente.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>ඞРазыгрывает один раз за каждый ход и выигрывает битву непосредственно после пятикратного разыгрывания.</t>
         </is>
@@ -1010,7 +1010,7 @@
           <t>Sopro do Abismo</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>Дыхание бездны</t>
         </is>
@@ -1060,7 +1060,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>Проведите проверку воли противника, если сопротивление прошло успешно, затем примените заклинание. После успешного применения противник будет терять 1D8 HP каждый ход, и ему потребуется критическая проверка, чтобы устранить этот эффект.
 Это заклинание не действует на Великих Древних.</t>
@@ -1103,7 +1103,7 @@
           <t>Olho Maligno</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>Дурной глаз</t>
         </is>
@@ -1145,7 +1145,7 @@
           <t>Implantar Medo</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>Устрашение</t>
         </is>
@@ -1187,7 +1187,7 @@
           <t>Assobio do Rei</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>ඞСвисток короля</t>
         </is>
@@ -1236,7 +1236,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>ඞВы будете невосприимчивы к эффекту вражеского заклинания во время хода кастинга, после успешного кастинга CON цели будет уменьшаться на 3D10 каждый ход, пока не достигнет 0 и не умрет (удалится с поля боя).
 Это заклинание не действует на Великих Древних.</t>
@@ -1279,7 +1279,7 @@
           <t>Corredor do Tempo</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>ඞВременной коридор</t>
         </is>
@@ -1321,7 +1321,7 @@
           <t>Obtêm um item de tecnologia anciã ou futurística.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>ඞДобудьте древний или будущий технологический предмет.</t>
         </is>
@@ -1363,7 +1363,7 @@
           <t>Os pulmões do alvo se encheram de água do mar, causando um afogamento doloroso.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>Наполните легкие жертвы морской водой, утопив ее.</t>
         </is>
@@ -1405,7 +1405,7 @@
           <t>A vítima sofrerá de má sorte e ficará em estado de pânico.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>Обрушьте на цель несчастье и панику.</t>
         </is>
@@ -1447,7 +1447,7 @@
           <t>O lançador emite um grito agudo, que faz com que a pele e a carne do alvo escolhido apodreçam.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="0" t="inlineStr">
         <is>
           <t>ඞЗаклинатель издает резкий вой, заставляя плоть цели гноиться.</t>
         </is>
@@ -1489,7 +1489,7 @@
           <t>Criar uma passagem pelo passado e pelo futuro para obter itens dele.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="0" t="inlineStr">
         <is>
           <t>ඞСоздайте коридор, который ведет через прошлое и будущее, чтобы получить из него предмет.</t>
         </is>
@@ -1531,7 +1531,7 @@
           <t>Controle Mental</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="0" t="inlineStr">
         <is>
           <t>Доминирование</t>
         </is>
@@ -1573,7 +1573,7 @@
           <t>Selo do Ancião</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="0" t="inlineStr">
         <is>
           <t>Знак древних</t>
         </is>
@@ -1615,7 +1615,7 @@
           <t>Ativa o selo do ançião para manter afastados os Grandes Antigos e as criaturas míticas.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" s="0" t="inlineStr">
         <is>
           <t>Активирует защиту, которая защищает от мифических существ.</t>
         </is>
@@ -1658,7 +1658,7 @@
           <t>Os Grandes Antigos e as criaturas míticas não irão atacar você (ainda podem contra-atacar) por 10 rodadas.</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" s="0" t="inlineStr">
         <is>
           <t>Великие Древние и мифические существа не будут атаковать вас (но все еще могут отразить вашу атаку) в течении 10 ходов.</t>
         </is>
@@ -1700,7 +1700,7 @@
           <t>Selo Vermelho</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" s="0" t="inlineStr">
         <is>
           <t>Красный знак</t>
         </is>
@@ -1742,7 +1742,7 @@
           <t>Libera uma marca carmesim no ar, causando dano a todos os alvos</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="0" t="inlineStr">
         <is>
           <t>Создает багряный знак, который ранит всех кто находится рядом с ним.</t>
         </is>
@@ -1784,7 +1784,7 @@
           <t>[Continuar se aproximando]</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="0" t="inlineStr">
         <is>
           <t>ඞ[Продолжай приближаться]</t>
         </is>
@@ -1826,7 +1826,7 @@
           <t>Punho da Verdade</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" s="0" t="inlineStr">
         <is>
           <t>Кулак истины</t>
         </is>
@@ -1868,7 +1868,7 @@
           <t>O conjurador cria uma poderosa força invisível para atingir o alvo.</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>Заклинатель поражает цель невидимой силой.</t>
         </is>
@@ -1916,7 +1916,7 @@
 O alvo receberá 4D6 de dano físico.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="0" t="inlineStr">
         <is>
           <t>ඞВыполните проверку цели на противодействие с помощью 2D100 STR, если не удалось, то перейдите в состояние оглушения.
 Цель получит 4D6 физического урона.</t>
@@ -1959,7 +1959,7 @@
           <t>Palavras de Poder</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>Слова силы</t>
         </is>
@@ -2001,7 +2001,7 @@
           <t>Convença completamente o público sobre o que você está dizendo.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" s="0" t="inlineStr">
         <is>
           <t>Тщательно убедите аудиторию в том, что вы говорите.</t>
         </is>
@@ -2043,7 +2043,7 @@
           <t>Seu próximo teste de habilidade de diplomacia será crítico.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" s="0" t="inlineStr">
         <is>
           <t>Ваша следующая проверка навыков дипломатии будет критической.</t>
         </is>
@@ -2085,7 +2085,7 @@
           <t>Criação de Barreira</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" s="0" t="inlineStr">
         <is>
           <t>Барьер</t>
         </is>
@@ -2128,7 +2128,7 @@
           <t>Cria uma barreira esférica invisível ao redor do conjurador que fornece defesa física e mágica.</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" s="0" t="inlineStr">
         <is>
           <t>Создает прозрачный сферический барьер вокруг заклинателя обеспечивая значительную физическую и магическую защиту.</t>
         </is>
@@ -2171,7 +2171,7 @@
           <t>Dá a todos os aliados 5 pontos de armadura e reduz pela metade o dano mágico por 3 turnos.</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" s="0" t="inlineStr">
         <is>
           <t>В течении 3 ходов, добавьте 5 единиц брони всем союзникам и уменьшите вдвое магический урон.</t>
         </is>
@@ -2213,7 +2213,7 @@
           <t>Criar Névoa</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" s="0" t="inlineStr">
         <is>
           <t>Туман</t>
         </is>
@@ -2255,7 +2255,7 @@
           <t>Cria uma névoa densa na frente do conjurador, obscurecendo efetivamente a visão do inimigo.</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" s="0" t="inlineStr">
         <is>
           <t>Создайте плотный туман перед заклинателем эффективно блокируя зрение противника.</t>
         </is>
@@ -2298,7 +2298,7 @@
           <t>Dá a todos os alidaos 2 dados de bônus em verificações de esquiva por 3 rodadas.</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" s="0" t="inlineStr">
         <is>
           <t>В течении 3 ходов, уклонение получает 2 бонусных кубика.</t>
         </is>
@@ -2340,7 +2340,7 @@
           <t>Sinal Voorish</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" s="0" t="inlineStr">
         <is>
           <t>Знак Вуриша</t>
         </is>
@@ -2382,7 +2382,7 @@
           <t>Gestos antigos e poderosos usados por feiticeiros, capazes de conter brevemente criaturas míticas.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" s="0" t="inlineStr">
         <is>
           <t>Древний и могущественный знак, который может временно сдерживать мифических существ.</t>
         </is>
@@ -2431,7 +2431,7 @@
 Se não houver criaturas míticas no campo, o efeito muda para que o próximo feitiço não tenha nenhum custo quando for conjurado.</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" s="0" t="inlineStr">
         <is>
           <t>ඞОтмените целевое действие в этот ход. DEX+20 в этот ход.
 Если на поле нет мифических существ, эффект изменится на "Вам не нужно ничего платить, чтобы произнести свое следующее заклинание".</t>
@@ -2474,7 +2474,7 @@
           <t>Causar Cegueira</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" s="0" t="inlineStr">
         <is>
           <t>Слепота</t>
         </is>
@@ -2516,7 +2516,7 @@
           <t>Dificulta a visão do alvo de reconhecer o que está à sua frente, de modo que ele só pode fazer ataques aleatórios e ineficazes.</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" s="0" t="inlineStr">
         <is>
           <t>Делает цель слепой без повреждения глаз или нервов.</t>
         </is>
@@ -2558,7 +2558,7 @@
           <t>Encantar Faca</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="0" t="inlineStr">
         <is>
           <t>Зачаровать Нож</t>
         </is>
@@ -2601,7 +2601,7 @@
           <t>Um feitiço que encanta facas comuns. As facas encantadas produzem uma variedade de efeitos incríveis.</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" s="0" t="inlineStr">
         <is>
           <t>Зачаруйте обычный нож даруя ему множество различных эффектов.</t>
         </is>
@@ -2644,7 +2644,7 @@
           <t>Ganhe +20 em Luta e o dano causado ao atacar com uma arma afiada é alterado para dano mágico por 3 lutas.</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" s="0" t="inlineStr">
         <is>
           <t>Драка+20, меняет урон на Магический. Продлится 3 сражения.</t>
         </is>
@@ -2686,7 +2686,7 @@
           <t>As fortes ondas de energia contidas nas profundezas do céu estrelado podem até causar danos a inimigos de outros mundos com um pouco de uso.</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="0" t="inlineStr">
         <is>
           <t>ඞСильная энергетическая волна, содержащаяся в глубоком космосе, если вы сможете правильно ее использовать, может даже нанести урон врагу из разных миров.</t>
         </is>
@@ -2728,7 +2728,7 @@
           <t>Luz Das Estrelas</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" s="0" t="inlineStr">
         <is>
           <t>Свет звезд</t>
         </is>
@@ -2772,7 +2772,7 @@
           <t>Causa 9∼14 pontos de dano mágico ao alvo. Faça uma verificação de VON enquanto estiver lançando o feitiço, causando 5∼10 pontos de dano mágico a um inimigo adicional se a dificuldade for sucesso difícil ou superior.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" s="0" t="inlineStr">
         <is>
           <t>Наносит 9-14 магического урона цели. Проведите проверку ВОЛ чтобы нанести дополнительно 5-10 магического урона другому противнику.</t>
         </is>
@@ -2816,7 +2816,7 @@
           <t>Coloque-se em um estado de proteção de carne e sangue. Sempre que sofrer dano físico, deduza metade do valor do dano para PM, arredondado para baixo, por 3 rodadas.</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="0" t="inlineStr">
         <is>
           <t>ඞВ течении трех ходов, половина полученого физического урона потратит MP вместо HP.</t>
         </is>
@@ -2859,7 +2859,7 @@
           <t>Subjuga a vontade do alvo à do lançador, incapaz de resistir a qualquer comando.</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" s="0" t="inlineStr">
         <is>
           <t>Подчиняет волю цели заклинателю.</t>
         </is>
@@ -2901,7 +2901,7 @@
           <t>Inflige medo alucinante no alvo, amaldiçoando e interrompendo a concentração do alvo.</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="0" t="inlineStr">
         <is>
           <t>ඞНаводит на цель ошеломляющий страх, проклинает и нарушает ее концентрацию.</t>
         </is>
@@ -2950,7 +2950,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" s="0" t="inlineStr">
         <is>
           <t>Отмените действие цели в этот ход и заставьте его сделать случайное действие со случайной целью в тречении 3 ходов. Урон, наносимый этим врагом, уменьшается вдвое.
 Не влияет на Великих Древних.</t>
@@ -2994,7 +2994,7 @@
           <t>Entre no estado de Selo Vermelho e gaste 4 PM por turno para causar 8 pontos de dano mágico a todos os inimigos, com duração até o final da batalha ou até que não haja PM suficiente disponível.</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" s="0" t="inlineStr">
         <is>
           <t>Нарисуйте красный знак который каждый ход тратит 4 MP и наносит 8 магического урона всем врагам до конца битвы либо когда кончится MP</t>
         </is>
@@ -3037,7 +3037,7 @@
           <t>Faz com que o alvo ganhe um dado de penalidade em todos os testes, durando até o final da batalha.</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="0" t="inlineStr">
         <is>
           <t>ඞЦель получает один штрафной кубик ко всем проверкам до конца битвы.</t>
         </is>
@@ -3085,7 +3085,7 @@
 Batalha: Coloca o oponente em estado de encanto durante 3 rodadas.</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" s="0" t="inlineStr">
         <is>
           <t>ඞИспользуйте в исследовании: Если с другим можно повеселиться, тогда игнорируйте отношения другого, и вы можете повеселиться с ним или с ней.
 Используйте в бою: Зачаруйте цель, продержитесь 3 хода.</t>
@@ -3131,7 +3131,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" s="0" t="inlineStr">
         <is>
           <t>ඞ1Все враги обретают [Страх]. Не работает на Великих Древних.</t>
         </is>
@@ -3180,7 +3180,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" s="0" t="inlineStr">
         <is>
           <t>Заставьте цель получить один штрафной кубик во всех видах проверок до конца битвы.
 Не влияет на Великих Древних.</t>
@@ -3229,7 +3229,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="0" t="inlineStr">
         <is>
           <t>ඞ2Все враги обретают [Страх]. 
 Не работает на Великих Древних.</t>
@@ -3273,7 +3273,7 @@
           <t>Entre no estado de Selo Vermelho e gaste 4 PM por turno para causar 8 pontos de dano mágico a todos os inimigos, com duração até o final da batalha ou até que não haja PM suficiente disponível.</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" s="0" t="inlineStr">
         <is>
           <t>Нарисуйте красный знак который каждый ход тратит 4 MP и наносит 8 магического урона всем врагам до конца битвы либо когда кончится MP</t>
         </is>
@@ -3327,7 +3327,7 @@
 Esse feitiço não afetará os Grandes Antigos e nem criaturas míticas.</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" s="0" t="inlineStr">
         <is>
           <t>ඞИспользуйте в исследовании: Если с другим можно повеселиться, тогда игнорируйте отношения другого, и вы можете повеселиться с ним или с ней.
 Используйте в бою: Зачаруйте цель на 3 хода.
@@ -3372,7 +3372,7 @@
           <t>Causa 3∼12 pontos de dano mágico e anula o efeito "Projeção de Domínio" do alvo pelos próximos 2 turnos.</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" s="0" t="inlineStr">
         <is>
           <t>ඞНаносит 3-12 магических урона, из-за чего "Проекция сферы" цели теряет свой эффект в течение следующих 2 ходов.</t>
         </is>
@@ -3416,7 +3416,7 @@
           <t>Coloque-se em um estado de proteção de carne e sangue. Sempre que sofrer dano físico, deduza metade do valor do dano para PM, arredondado para baixo, por 3 rodadas, com duração até que não haja PM suficiente disponível.</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" s="0" t="inlineStr">
         <is>
           <t>В течении 3 ходов половина физического урона будет тратить MP вместо HP. Если MP будет недостаточно заклинание прервется.</t>
         </is>
@@ -3465,7 +3465,7 @@
 Se não houver criaturas míticas no campo de batalha, o efeito é alterado para que a próxima magia não pague nenhum custo quando for conjurada.</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" s="0" t="inlineStr">
         <is>
           <t>Скорость+30. Попробуйте отменить действие мифического существа в этот ход.
 Если на поле нет мифических существ, позволит скастовать следующее заклинание бесплатно.</t>
@@ -3514,7 +3514,7 @@
 Esse feitiço não afetará os Grandes Antigos e nem criaturas míticas.</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" s="0" t="inlineStr">
         <is>
           <t>Зачаруйте цель.
 Не влияет на Великих Древних и мифических существ.</t>
@@ -3557,7 +3557,7 @@
           <t>Invocação do Pesadelo</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" s="0" t="inlineStr">
         <is>
           <t>ඞЗаклинание призыва Ночного призрака</t>
         </is>
@@ -3599,7 +3599,7 @@
           <t>Invoque uma criatura de Pesadelo à sua frente.</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" s="0" t="inlineStr">
         <is>
           <t>ඞПризовите перед собой существо, похожее на изможденного Ночью</t>
         </is>
@@ -3641,7 +3641,7 @@
           <t>Use sangue e alma como sacrifícios para orar para o Senhor da Lua e ganhar o poder dos Pesadelos.</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" s="0" t="inlineStr">
         <is>
           <t>ඞПринесите в жертву кровь и душу, чтобы помолиться Повелителю Луны о силе Ночного гонца.</t>
         </is>
@@ -3683,7 +3683,7 @@
           <t>Dirija uma força enorme invisível para atingir o alvo.</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" s="0" t="inlineStr">
         <is>
           <t>Сокрушает цель невидимой мощной силой</t>
         </is>
@@ -3727,7 +3727,7 @@
           <t>Causa 2∼8 pontos de dano mágico, com esse dano aumentando 1∼4 pontos para cada 4 PM restantes do conjurador. Contra um alvo que não seja um Grande Antigo, também fará com que ele se mova para a última posição da fila em batalha.</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" s="0" t="inlineStr">
         <is>
           <t>Наносит 2-8 магических урона, увеличьте этот урон на 1-4 очка за каждые оставшиеся 4 MP. Также откладывает действие противника в конец очереди, если это не Древний.</t>
         </is>
@@ -3769,7 +3769,7 @@
           <t>Fantoche</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>Марионеттизм</t>
         </is>
@@ -3811,7 +3811,7 @@
           <t>Um feitiço hipnótico que torna o alvo incapaz de controlar suas próprias ações por um curto período de tempo, podendo apenas obedecer aos seus comandos.</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" s="0" t="inlineStr">
         <is>
           <t>На короткое время лишает цель возможности контролировать свои действия, повинуясь вашим командам</t>
         </is>
@@ -3860,7 +3860,7 @@
 Se o alvo do feitiço for um inimigo, no final da ação, o inimigo faz uma verificação de VON e, se for bem-sucedido, lança um contra-ataque contra o conjurador.</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" s="0" t="inlineStr">
         <is>
           <t>При использовании на ближайшем враге атакует его союзника нанеся +2 урона.
 В конце действия этот враг выполняет проверку воли, при удаче он контратакует заклинателя</t>
@@ -3903,7 +3903,7 @@
           <t>Criar Poeira Verde-Acinzentada</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" s="0" t="inlineStr">
         <is>
           <t>Магическая пыль</t>
         </is>
@@ -3945,7 +3945,7 @@
           <t>Use conhecimentos antigos para criar um pó mágico que pode causar muito dano.</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" s="0" t="inlineStr">
         <is>
           <t>Создает магическую пыль наносящую огромный урон</t>
         </is>
@@ -3988,7 +3988,7 @@
           <t>Cria item de arremesso: Poeira Verde-Acinzentada. (Causa 2∼12 dano quando arremessado e faz com que o alvo queime).</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" s="0" t="inlineStr">
         <is>
           <t>Создает предмет - Серо-зеленая пыль (наносит 2-12 урона при броске и поджигает цель)</t>
         </is>
@@ -4030,7 +4030,7 @@
           <t>Ausência e Catástrofe</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" s="0" t="inlineStr">
         <is>
           <t>ඞОтсутствие и катастрофа</t>
         </is>
@@ -4072,7 +4072,7 @@
           <t>Se quiser que os deuses olhem para você, você precisa dar algo primeiro.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли ты хочешь снискать жалость богов, ты должен сначала предложить что-то взамен.</t>
         </is>
@@ -4116,7 +4116,7 @@
           <t>Deduz 20 PS do personagem mais próximo e, em seguida, inflige 20 pontos de dano mágico a todos os personagens inimigos. Se o PS não puder ser totalmente deduzido, o personagem morre.</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" s="0" t="inlineStr">
         <is>
           <t>ඞОтнимите 20 очков духа у главного союзного персонажа, затем нанесите 20 очков магического урона всем вражеским персонажам. Если очки духа не могут быть полностью вычтены, этот персонаж умирает.</t>
         </is>

--- a/GameModules/Localization_Magic.xlsx
+++ b/GameModules/Localization_Magic.xlsx
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>ඞВременной коридор</t>
+          <t>Временной коридор</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>ඞДобудьте древний или будущий технологический предмет.</t>
+          <t>Получите технологический предмет из будущего или прошлого</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>ඞЗаклинатель издает резкий вой, заставляя плоть цели гноиться.</t>
+          <t>Заклинатель издает резкий вой, заставляя плоть цели гноиться.</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>ඞСоздайте коридор, который ведет через прошлое и будущее, чтобы получить из него предмет.</t>
+          <t>Создайте коридор, который ведет через прошлое и будущее, чтобы получить из него предмет.</t>
         </is>
       </c>
     </row>

--- a/GameModules/Localization_Magic.xlsx
+++ b/GameModules/Localization_Magic.xlsx
@@ -547,7 +547,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -589,7 +589,7 @@
           <t>Proteção de Carne</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Защита плоти</t>
         </is>
@@ -631,7 +631,7 @@
           <t>Sacrifique carne e sangue como um escudo para obter proteção contra ataques físicos.</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Пожертвуйте плотью чтобы использовать ее в качестве щита, защищая себя от физических атак</t>
         </is>
@@ -673,7 +673,7 @@
           <t>Bênção da Lâmina</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Волшебный Клинок</t>
         </is>
@@ -715,7 +715,7 @@
           <t>Crie uma arma afiada que possa ferir um ser que uma arma comum não pode.</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Создайте острое оружие, способное ранить тех существ, которых нельзя ранить обычным оружием</t>
         </is>
@@ -757,7 +757,7 @@
           <t>Obtêm Arma - [Lâmina Abençoada].</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Получите оружие - [Волшебный Клинок]</t>
         </is>
@@ -799,7 +799,7 @@
           <t>Praga</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Увядание</t>
         </is>
@@ -842,7 +842,7 @@
           <t>Um poderoso feitiço de ataque em que o alvo é atingido por uma força aterrorizante, fazendo com que a carne e o sangue queimem e murchem.</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Мощное атакующее заклинание, цель испытает ужасающую силу удара, в результате чего ее плоть начнет гореть и разваливаться</t>
         </is>
@@ -884,7 +884,7 @@
           <t>Ativar Torre Ritual</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>ඞАктивировать ритуальную башню</t>
         </is>
@@ -926,7 +926,7 @@
           <t>Carter ativará a Torre Ritual após conjurar cinco vezes.</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>ඞКартер активирует ритуальную башню после произнесения заклинания пять раз.</t>
         </is>
@@ -968,7 +968,7 @@
           <t>Conjurar uma vez por rodada. Depois de conjurar cinco vezes, você vencerá a batalha diretamente.</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>ඞРазыгрывает один раз за каждый ход и выигрывает битву непосредственно после пятикратного разыгрывания.</t>
         </is>
@@ -1010,7 +1010,7 @@
           <t>Sopro do Abismo</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Дыхание бездны</t>
         </is>
@@ -1060,7 +1060,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Проведите проверку воли противника, если сопротивление прошло успешно, затем примените заклинание. После успешного применения противник будет терять 1D8 HP каждый ход, и ему потребуется критическая проверка, чтобы устранить этот эффект.
 Это заклинание не действует на Великих Древних.</t>
@@ -1103,7 +1103,7 @@
           <t>Olho Maligno</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Дурной глаз</t>
         </is>
@@ -1145,7 +1145,7 @@
           <t>Implantar Medo</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Устрашение</t>
         </is>
@@ -1187,7 +1187,7 @@
           <t>Assobio do Rei</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ඞСвисток короля</t>
         </is>
@@ -1236,7 +1236,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>ඞВы будете невосприимчивы к эффекту вражеского заклинания во время хода кастинга, после успешного кастинга CON цели будет уменьшаться на 3D10 каждый ход, пока не достигнет 0 и не умрет (удалится с поля боя).
 Это заклинание не действует на Великих Древних.</t>
@@ -1279,7 +1279,7 @@
           <t>Corredor do Tempo</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Временной коридор</t>
         </is>
@@ -1321,7 +1321,7 @@
           <t>Obtêm um item de tecnologia anciã ou futurística.</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Получите технологический предмет из будущего или прошлого</t>
         </is>
@@ -1363,7 +1363,7 @@
           <t>Os pulmões do alvo se encheram de água do mar, causando um afogamento doloroso.</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Наполните легкие жертвы морской водой, утопив ее.</t>
         </is>
@@ -1405,7 +1405,7 @@
           <t>A vítima sofrerá de má sorte e ficará em estado de pânico.</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Обрушьте на цель несчастье и панику.</t>
         </is>
@@ -1447,7 +1447,7 @@
           <t>O lançador emite um grito agudo, que faz com que a pele e a carne do alvo escolhido apodreçam.</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Заклинатель издает резкий вой, заставляя плоть цели гноиться.</t>
         </is>
@@ -1489,7 +1489,7 @@
           <t>Criar uma passagem pelo passado e pelo futuro para obter itens dele.</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Создайте коридор, который ведет через прошлое и будущее, чтобы получить из него предмет.</t>
         </is>
@@ -1531,7 +1531,7 @@
           <t>Controle Mental</t>
         </is>
       </c>
-      <c r="H24" s="0" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Доминирование</t>
         </is>
@@ -1573,7 +1573,7 @@
           <t>Selo do Ancião</t>
         </is>
       </c>
-      <c r="H25" s="0" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Знак древних</t>
         </is>
@@ -1615,7 +1615,7 @@
           <t>Ativa o selo do ançião para manter afastados os Grandes Antigos e as criaturas míticas.</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Активирует защиту, которая защищает от мифических существ.</t>
         </is>
@@ -1658,7 +1658,7 @@
           <t>Os Grandes Antigos e as criaturas míticas não irão atacar você (ainda podem contra-atacar) por 10 rodadas.</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Великие Древние и мифические существа не будут атаковать вас (но все еще могут отразить вашу атаку) в течении 10 ходов.</t>
         </is>
@@ -1700,7 +1700,7 @@
           <t>Selo Vermelho</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Красный знак</t>
         </is>
@@ -1742,7 +1742,7 @@
           <t>Libera uma marca carmesim no ar, causando dano a todos os alvos</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Создает багряный знак, который ранит всех кто находится рядом с ним.</t>
         </is>
@@ -1784,7 +1784,7 @@
           <t>[Continuar se aproximando]</t>
         </is>
       </c>
-      <c r="H30" s="0" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>ඞ[Продолжай приближаться]</t>
         </is>
@@ -1826,7 +1826,7 @@
           <t>Punho da Verdade</t>
         </is>
       </c>
-      <c r="H31" s="0" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Кулак истины</t>
         </is>
@@ -1868,7 +1868,7 @@
           <t>O conjurador cria uma poderosa força invisível para atingir o alvo.</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Заклинатель поражает цель невидимой силой.</t>
         </is>
@@ -1916,7 +1916,7 @@
 O alvo receberá 4D6 de dano físico.</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>ඞВыполните проверку цели на противодействие с помощью 2D100 STR, если не удалось, то перейдите в состояние оглушения.
 Цель получит 4D6 физического урона.</t>
@@ -1959,7 +1959,7 @@
           <t>Palavras de Poder</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Слова силы</t>
         </is>
@@ -2001,7 +2001,7 @@
           <t>Convença completamente o público sobre o que você está dizendo.</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Тщательно убедите аудиторию в том, что вы говорите.</t>
         </is>
@@ -2043,7 +2043,7 @@
           <t>Seu próximo teste de habilidade de diplomacia será crítico.</t>
         </is>
       </c>
-      <c r="H36" s="0" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Ваша следующая проверка навыков дипломатии будет критической.</t>
         </is>
@@ -2085,7 +2085,7 @@
           <t>Criação de Barreira</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Барьер</t>
         </is>
@@ -2128,7 +2128,7 @@
           <t>Cria uma barreira esférica invisível ao redor do conjurador que fornece defesa física e mágica.</t>
         </is>
       </c>
-      <c r="H38" s="0" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Создает прозрачный сферический барьер вокруг заклинателя обеспечивая значительную физическую и магическую защиту.</t>
         </is>
@@ -2171,7 +2171,7 @@
           <t>Dá a todos os aliados 5 pontos de armadura e reduz pela metade o dano mágico por 3 turnos.</t>
         </is>
       </c>
-      <c r="H39" s="0" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>В течении 3 ходов, добавьте 5 единиц брони всем союзникам и уменьшите вдвое магический урон.</t>
         </is>
@@ -2213,7 +2213,7 @@
           <t>Criar Névoa</t>
         </is>
       </c>
-      <c r="H40" s="0" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Туман</t>
         </is>
@@ -2255,7 +2255,7 @@
           <t>Cria uma névoa densa na frente do conjurador, obscurecendo efetivamente a visão do inimigo.</t>
         </is>
       </c>
-      <c r="H41" s="0" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Создайте плотный туман перед заклинателем эффективно блокируя зрение противника.</t>
         </is>
@@ -2298,7 +2298,7 @@
           <t>Dá a todos os alidaos 2 dados de bônus em verificações de esquiva por 3 rodadas.</t>
         </is>
       </c>
-      <c r="H42" s="0" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>В течении 3 ходов, уклонение получает 2 бонусных кубика.</t>
         </is>
@@ -2340,7 +2340,7 @@
           <t>Sinal Voorish</t>
         </is>
       </c>
-      <c r="H43" s="0" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Знак Вуриша</t>
         </is>
@@ -2382,7 +2382,7 @@
           <t>Gestos antigos e poderosos usados por feiticeiros, capazes de conter brevemente criaturas míticas.</t>
         </is>
       </c>
-      <c r="H44" s="0" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Древний и могущественный знак, который может временно сдерживать мифических существ.</t>
         </is>
@@ -2431,7 +2431,7 @@
 Se não houver criaturas míticas no campo, o efeito muda para que o próximo feitiço não tenha nenhum custo quando for conjurado.</t>
         </is>
       </c>
-      <c r="H45" s="0" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>ඞОтмените целевое действие в этот ход. DEX+20 в этот ход.
 Если на поле нет мифических существ, эффект изменится на "Вам не нужно ничего платить, чтобы произнести свое следующее заклинание".</t>
@@ -2474,7 +2474,7 @@
           <t>Causar Cegueira</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Слепота</t>
         </is>
@@ -2516,7 +2516,7 @@
           <t>Dificulta a visão do alvo de reconhecer o que está à sua frente, de modo que ele só pode fazer ataques aleatórios e ineficazes.</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Делает цель слепой без повреждения глаз или нервов.</t>
         </is>
@@ -2558,7 +2558,7 @@
           <t>Encantar Faca</t>
         </is>
       </c>
-      <c r="H48" s="0" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Зачаровать Нож</t>
         </is>
@@ -2601,7 +2601,7 @@
           <t>Um feitiço que encanta facas comuns. As facas encantadas produzem uma variedade de efeitos incríveis.</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Зачаруйте обычный нож даруя ему множество различных эффектов.</t>
         </is>
@@ -2644,7 +2644,7 @@
           <t>Ganhe +20 em Luta e o dano causado ao atacar com uma arma afiada é alterado para dano mágico por 3 lutas.</t>
         </is>
       </c>
-      <c r="H50" s="0" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Драка+20, меняет урон на Магический. Продлится 3 сражения.</t>
         </is>
@@ -2686,7 +2686,7 @@
           <t>As fortes ondas de energia contidas nas profundezas do céu estrelado podem até causar danos a inimigos de outros mundos com um pouco de uso.</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>ඞСильная энергетическая волна, содержащаяся в глубоком космосе, если вы сможете правильно ее использовать, может даже нанести урон врагу из разных миров.</t>
         </is>
@@ -2728,7 +2728,7 @@
           <t>Luz Das Estrelas</t>
         </is>
       </c>
-      <c r="H52" s="0" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Свет звезд</t>
         </is>
@@ -2772,7 +2772,7 @@
           <t>Causa 9∼14 pontos de dano mágico ao alvo. Faça uma verificação de VON enquanto estiver lançando o feitiço, causando 5∼10 pontos de dano mágico a um inimigo adicional se a dificuldade for sucesso difícil ou superior.</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Наносит 9-14 магического урона цели. Проведите проверку ВОЛ чтобы нанести дополнительно 5-10 магического урона другому противнику.</t>
         </is>
@@ -2816,7 +2816,7 @@
           <t>Coloque-se em um estado de proteção de carne e sangue. Sempre que sofrer dano físico, deduza metade do valor do dano para PM, arredondado para baixo, por 3 rodadas.</t>
         </is>
       </c>
-      <c r="H54" s="0" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>ඞВ течении трех ходов, половина полученого физического урона потратит MP вместо HP.</t>
         </is>
@@ -2859,7 +2859,7 @@
           <t>Subjuga a vontade do alvo à do lançador, incapaz de resistir a qualquer comando.</t>
         </is>
       </c>
-      <c r="H55" s="0" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Подчиняет волю цели заклинателю.</t>
         </is>
@@ -2901,7 +2901,7 @@
           <t>Inflige medo alucinante no alvo, amaldiçoando e interrompendo a concentração do alvo.</t>
         </is>
       </c>
-      <c r="H56" s="0" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>ඞНаводит на цель ошеломляющий страх, проклинает и нарушает ее концентрацию.</t>
         </is>
@@ -2950,7 +2950,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H57" s="0" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Отмените действие цели в этот ход и заставьте его сделать случайное действие со случайной целью в тречении 3 ходов. Урон, наносимый этим врагом, уменьшается вдвое.
 Не влияет на Великих Древних.</t>
@@ -2994,7 +2994,7 @@
           <t>Entre no estado de Selo Vermelho e gaste 4 PM por turno para causar 8 pontos de dano mágico a todos os inimigos, com duração até o final da batalha ou até que não haja PM suficiente disponível.</t>
         </is>
       </c>
-      <c r="H58" s="0" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Нарисуйте красный знак который каждый ход тратит 4 MP и наносит 8 магического урона всем врагам до конца битвы либо когда кончится MP</t>
         </is>
@@ -3037,9 +3037,9 @@
           <t>Faz com que o alvo ganhe um dado de penalidade em todos os testes, durando até o final da batalha.</t>
         </is>
       </c>
-      <c r="H59" s="0" t="inlineStr">
-        <is>
-          <t>ඞЦель получает один штрафной кубик ко всем проверкам до конца битвы.</t>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Цель получает один штрафной кубик ко всем проверкам до конца битвы.</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
 Batalha: Coloca o oponente em estado de encanto durante 3 rodadas.</t>
         </is>
       </c>
-      <c r="H60" s="0" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>ඞИспользуйте в исследовании: Если с другим можно повеселиться, тогда игнорируйте отношения другого, и вы можете повеселиться с ним или с ней.
 Используйте в бою: Зачаруйте цель, продержитесь 3 хода.</t>
@@ -3131,7 +3131,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H61" s="0" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>ඞ1Все враги обретают [Страх]. Не работает на Великих Древних.</t>
         </is>
@@ -3180,7 +3180,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H62" s="0" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Заставьте цель получить один штрафной кубик во всех видах проверок до конца битвы.
 Не влияет на Великих Древних.</t>
@@ -3229,7 +3229,7 @@
 Esse feitiço não afetará os Grandes Antigos.</t>
         </is>
       </c>
-      <c r="H63" s="0" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>ඞ2Все враги обретают [Страх]. 
 Не работает на Великих Древних.</t>
@@ -3273,7 +3273,7 @@
           <t>Entre no estado de Selo Vermelho e gaste 4 PM por turno para causar 8 pontos de dano mágico a todos os inimigos, com duração até o final da batalha ou até que não haja PM suficiente disponível.</t>
         </is>
       </c>
-      <c r="H64" s="0" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Нарисуйте красный знак который каждый ход тратит 4 MP и наносит 8 магического урона всем врагам до конца битвы либо когда кончится MP</t>
         </is>
@@ -3327,7 +3327,7 @@
 Esse feitiço não afetará os Grandes Antigos e nem criaturas míticas.</t>
         </is>
       </c>
-      <c r="H65" s="0" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>ඞИспользуйте в исследовании: Если с другим можно повеселиться, тогда игнорируйте отношения другого, и вы можете повеселиться с ним или с ней.
 Используйте в бою: Зачаруйте цель на 3 хода.
@@ -3372,7 +3372,7 @@
           <t>Causa 3∼12 pontos de dano mágico e anula o efeito "Projeção de Domínio" do alvo pelos próximos 2 turnos.</t>
         </is>
       </c>
-      <c r="H66" s="0" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>ඞНаносит 3-12 магических урона, из-за чего "Проекция сферы" цели теряет свой эффект в течение следующих 2 ходов.</t>
         </is>
@@ -3416,7 +3416,7 @@
           <t>Coloque-se em um estado de proteção de carne e sangue. Sempre que sofrer dano físico, deduza metade do valor do dano para PM, arredondado para baixo, por 3 rodadas, com duração até que não haja PM suficiente disponível.</t>
         </is>
       </c>
-      <c r="H67" s="0" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>В течении 3 ходов половина физического урона будет тратить MP вместо HP. Если MP будет недостаточно заклинание прервется.</t>
         </is>
@@ -3465,7 +3465,7 @@
 Se não houver criaturas míticas no campo de batalha, o efeito é alterado para que a próxima magia não pague nenhum custo quando for conjurada.</t>
         </is>
       </c>
-      <c r="H68" s="0" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Скорость+30. Попробуйте отменить действие мифического существа в этот ход.
 Если на поле нет мифических существ, позволит скастовать следующее заклинание бесплатно.</t>
@@ -3514,7 +3514,7 @@
 Esse feitiço não afetará os Grandes Antigos e nem criaturas míticas.</t>
         </is>
       </c>
-      <c r="H69" s="0" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Зачаруйте цель.
 Не влияет на Великих Древних и мифических существ.</t>
@@ -3557,7 +3557,7 @@
           <t>Invocação do Pesadelo</t>
         </is>
       </c>
-      <c r="H70" s="0" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>ඞЗаклинание призыва Ночного призрака</t>
         </is>
@@ -3599,7 +3599,7 @@
           <t>Invoque uma criatura de Pesadelo à sua frente.</t>
         </is>
       </c>
-      <c r="H71" s="0" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>ඞПризовите перед собой существо, похожее на изможденного Ночью</t>
         </is>
@@ -3641,7 +3641,7 @@
           <t>Use sangue e alma como sacrifícios para orar para o Senhor da Lua e ganhar o poder dos Pesadelos.</t>
         </is>
       </c>
-      <c r="H72" s="0" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>ඞПринесите в жертву кровь и душу, чтобы помолиться Повелителю Луны о силе Ночного гонца.</t>
         </is>
@@ -3683,7 +3683,7 @@
           <t>Dirija uma força enorme invisível para atingir o alvo.</t>
         </is>
       </c>
-      <c r="H73" s="0" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Сокрушает цель невидимой мощной силой</t>
         </is>
@@ -3727,7 +3727,7 @@
           <t>Causa 2∼8 pontos de dano mágico, com esse dano aumentando 1∼4 pontos para cada 4 PM restantes do conjurador. Contra um alvo que não seja um Grande Antigo, também fará com que ele se mova para a última posição da fila em batalha.</t>
         </is>
       </c>
-      <c r="H74" s="0" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Наносит 2-8 магических урона, увеличьте этот урон на 1-4 очка за каждые оставшиеся 4 MP. Также откладывает действие противника в конец очереди, если это не Древний.</t>
         </is>
@@ -3769,7 +3769,7 @@
           <t>Fantoche</t>
         </is>
       </c>
-      <c r="H75" s="0" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Марионеттизм</t>
         </is>
@@ -3811,7 +3811,7 @@
           <t>Um feitiço hipnótico que torna o alvo incapaz de controlar suas próprias ações por um curto período de tempo, podendo apenas obedecer aos seus comandos.</t>
         </is>
       </c>
-      <c r="H76" s="0" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>На короткое время лишает цель возможности контролировать свои действия, повинуясь вашим командам</t>
         </is>
@@ -3860,7 +3860,7 @@
 Se o alvo do feitiço for um inimigo, no final da ação, o inimigo faz uma verificação de VON e, se for bem-sucedido, lança um contra-ataque contra o conjurador.</t>
         </is>
       </c>
-      <c r="H77" s="0" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>При использовании на ближайшем враге атакует его союзника нанеся +2 урона.
 В конце действия этот враг выполняет проверку воли, при удаче он контратакует заклинателя</t>
@@ -3903,7 +3903,7 @@
           <t>Criar Poeira Verde-Acinzentada</t>
         </is>
       </c>
-      <c r="H78" s="0" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Магическая пыль</t>
         </is>
@@ -3945,7 +3945,7 @@
           <t>Use conhecimentos antigos para criar um pó mágico que pode causar muito dano.</t>
         </is>
       </c>
-      <c r="H79" s="0" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Создает магическую пыль наносящую огромный урон</t>
         </is>
@@ -3988,7 +3988,7 @@
           <t>Cria item de arremesso: Poeira Verde-Acinzentada. (Causa 2∼12 dano quando arremessado e faz com que o alvo queime).</t>
         </is>
       </c>
-      <c r="H80" s="0" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Создает предмет - Серо-зеленая пыль (наносит 2-12 урона при броске и поджигает цель)</t>
         </is>
@@ -4030,7 +4030,7 @@
           <t>Ausência e Catástrofe</t>
         </is>
       </c>
-      <c r="H81" s="0" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>ඞОтсутствие и катастрофа</t>
         </is>
@@ -4072,7 +4072,7 @@
           <t>Se quiser que os deuses olhem para você, você precisa dar algo primeiro.</t>
         </is>
       </c>
-      <c r="H82" s="0" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>ඞЕсли ты хочешь снискать жалость богов, ты должен сначала предложить что-то взамен.</t>
         </is>
@@ -4116,7 +4116,7 @@
           <t>Deduz 20 PS do personagem mais próximo e, em seguida, inflige 20 pontos de dano mágico a todos os personagens inimigos. Se o PS não puder ser totalmente deduzido, o personagem morre.</t>
         </is>
       </c>
-      <c r="H83" s="0" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>ඞОтнимите 20 очков духа у главного союзного персонажа, затем нанесите 20 очков магического урона всем вражеским персонажам. Если очки духа не могут быть полностью вычтены, этот персонаж умирает.</t>
         </is>
